--- a/zqlparserdemo/zqlexamples.xlsx
+++ b/zqlparserdemo/zqlexamples.xlsx
@@ -1,50 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView windowWidth="20415" windowHeight="10102" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
   <si>
     <t>Name</t>
   </si>
   <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
     <t>Z</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>Viz</t>
   </si>
   <si>
+    <t>Constraints</t>
+  </si>
+  <si>
     <t>Process</t>
   </si>
   <si>
+    <t>Purpose</t>
+  </si>
+  <si>
     <t>f1</t>
   </si>
   <si>
-    <t>Purpose</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 'year'</t>
   </si>
   <si>
@@ -66,54 +64,54 @@
     <t>z1&lt;-'state'.*</t>
   </si>
   <si>
+    <t>Check variable assigment in X, Y, Z columns  functionality.</t>
+  </si>
+  <si>
+    <t>*f2</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>y1</t>
+  </si>
+  <si>
+    <t>z1</t>
+  </si>
+  <si>
+    <t>state='CA'</t>
+  </si>
+  <si>
+    <t>Check variable recall in X, Y, Z columns and constraints column functionality.</t>
+  </si>
+  <si>
+    <t>*f1</t>
+  </si>
+  <si>
+    <t>x1&lt;-{'year','month'}</t>
+  </si>
+  <si>
+    <t>y1&lt;-{'soldprice','listingprice'}</t>
+  </si>
+  <si>
+    <t>state='CA',state='NY'</t>
+  </si>
+  <si>
+    <t>Check multiple value support in X, Y, Constraints columns functionality.</t>
+  </si>
+  <si>
     <t>f2</t>
   </si>
   <si>
-    <t>*f2</t>
-  </si>
-  <si>
-    <t>x1</t>
-  </si>
-  <si>
-    <t>y1</t>
-  </si>
-  <si>
-    <t>z1</t>
-  </si>
-  <si>
-    <t>Check variable recall in X, Y, Z columns and constraints column functionality.</t>
-  </si>
-  <si>
-    <t>Check variable assigment in X, Y, Z columns  functionality.</t>
-  </si>
-  <si>
-    <t>Constraints</t>
-  </si>
-  <si>
-    <t>state='CA'</t>
-  </si>
-  <si>
-    <t>x1&lt;-{'year','month'}</t>
-  </si>
-  <si>
-    <t>y1&lt;-{'soldprice','listingprice'}</t>
-  </si>
-  <si>
-    <t>state='CA',state='NY'</t>
-  </si>
-  <si>
-    <t>Check multiple value support in X, Y, Constraints columns functionality.</t>
-  </si>
-  <si>
     <t>v1&lt;-Similar[k=7]D(f1,f2)</t>
   </si>
   <si>
+    <t>Check Similar process column functionality.</t>
+  </si>
+  <si>
     <t>*f3</t>
   </si>
   <si>
-    <t>*f1</t>
-  </si>
-  <si>
     <t>v1</t>
   </si>
   <si>
@@ -123,15 +121,12 @@
     <t>Check Dissimilar process column functionality.</t>
   </si>
   <si>
-    <t>Check Similar process column functionality.</t>
+    <t>state'.*</t>
   </si>
   <si>
     <t>v1&lt;-IncTrends(f1)</t>
   </si>
   <si>
-    <t>state'.*</t>
-  </si>
-  <si>
     <t>Check IncTrends process column functionality.</t>
   </si>
   <si>
@@ -139,50 +134,200 @@
   </si>
   <si>
     <t>Check DecTrends process column functionality.</t>
+  </si>
+  <si>
+    <t>NEW</t>
+  </si>
+  <si>
+    <t>Queries</t>
+  </si>
+  <si>
+    <t>Below!</t>
+  </si>
+  <si>
+    <t>z2&lt;-'state'.*</t>
+  </si>
+  <si>
+    <t>v1,v2&lt;-argmin_{z1}x{z2}[k=7]DEuclidean(f1,f2)</t>
+  </si>
+  <si>
+    <t>v2</t>
+  </si>
+  <si>
+    <t>^ note v1,v2 (parser can't handle a space! like v1, v2)</t>
+  </si>
+  <si>
+    <t>v1&lt;-argmin_{v1,v2}x{v3,v4}[k=7]DEuclidean(f1,f2)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -195,8 +340,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -204,148 +535,308 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="63">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="63">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+  <cellStyles count="47">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="60% - Accent4" xfId="10" builtinId="44"/>
+    <cellStyle name="40% - Accent3" xfId="11" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="12" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="13" builtinId="35"/>
+    <cellStyle name="Title" xfId="14" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="15" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="16" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="17" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="18" builtinId="19"/>
+    <cellStyle name="Input" xfId="19" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="20" builtinId="40"/>
+    <cellStyle name="Good" xfId="21" builtinId="26"/>
+    <cellStyle name="Output" xfId="22" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="23" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="24" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="25" builtinId="24"/>
+    <cellStyle name="Total" xfId="26" builtinId="25"/>
+    <cellStyle name="Bad" xfId="27" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="28" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="29" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="30" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="31" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="32" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="33" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="34" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="35" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="36" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="37" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="38" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="39" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="40" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="42" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="43" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="44" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="45" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="46" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -665,27 +1156,27 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="33.1640625" customWidth="1"/>
+    <col min="2" max="2" width="18.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="33.1666666666667" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" customWidth="1"/>
-    <col min="7" max="7" width="22" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" customWidth="1"/>
-    <col min="9" max="9" width="74.6640625" customWidth="1"/>
+    <col min="6" max="6" width="21.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="50.7583333333333" customWidth="1"/>
+    <col min="8" max="8" width="5.66666666666667" customWidth="1"/>
+    <col min="9" max="9" width="74.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -693,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I1" t="s">
         <v>7</v>
@@ -716,72 +1207,72 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B2" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="3" customFormat="1">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:9">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:9">
+      <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" s="4" customFormat="1">
-      <c r="A5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="3" customFormat="1"/>
+      <c r="I5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1"/>
     <row r="7" spans="1:9">
       <c r="A7" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>24</v>
@@ -790,177 +1281,177 @@
         <v>25</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="6" customFormat="1"/>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
+    <row r="8" s="3" customFormat="1"/>
+    <row r="9" spans="1:6">
+      <c r="A9" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1"/>
+    <row r="13" spans="1:6">
+      <c r="A13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="3" customFormat="1"/>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
       <c r="F13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
         <v>18</v>
       </c>
-      <c r="D14" t="s">
+      <c r="C15" t="s">
         <v>19</v>
       </c>
-      <c r="G14" t="s">
+      <c r="D15" t="s">
         <v>32</v>
       </c>
-      <c r="I14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" t="s">
         <v>36</v>
-      </c>
-      <c r="G17" t="s">
-        <v>35</v>
       </c>
       <c r="I17" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="3" customFormat="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1"/>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>36</v>
+        <v>14</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="G20" t="s">
         <v>38</v>
@@ -969,28 +1460,99 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1"/>
+    <row r="23" s="1" customFormat="1"/>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" spans="1:6">
+      <c r="A25" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25"/>
+      <c r="F25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
         <v>18</v>
       </c>
-      <c r="D21" t="s">
+      <c r="C26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" t="s">
+        <v>43</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" spans="1:4">
+      <c r="A27" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" s="3" customFormat="1"/>
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1"/>
+    <row r="29" spans="7:7">
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="7:7">
+      <c r="G31" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/zqlparserdemo/zqlexamples.xlsx
+++ b/zqlparserdemo/zqlexamples.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
   <si>
     <t>Name</t>
   </si>
@@ -28,12 +28,12 @@
     <t>Z</t>
   </si>
   <si>
+    <t>Constraints</t>
+  </si>
+  <si>
     <t>Viz</t>
   </si>
   <si>
-    <t>Constraints</t>
-  </si>
-  <si>
     <t>Process</t>
   </si>
   <si>
@@ -158,6 +158,15 @@
   </si>
   <si>
     <t>v1&lt;-argmin_{v1,v2}x{v3,v4}[k=7]DEuclidean(f1,f2)</t>
+  </si>
+  <si>
+    <t>y2&lt;-{'listingprice'}</t>
+  </si>
+  <si>
+    <t>v1&lt;-argmin_{y1,y2}[k=7]DEuclidean(f1,f2)</t>
+  </si>
+  <si>
+    <t>y3&lt;-{'soldprice','listingprice'}</t>
   </si>
 </sst>
 </file>
@@ -165,12 +174,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -192,15 +201,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,38 +253,31 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,6 +291,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -267,16 +306,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,9 +329,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,27 +345,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -342,25 +373,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF5F5F5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,37 +553,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,127 +563,52 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -547,15 +623,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,21 +643,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -601,15 +653,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,149 +676,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -785,9 +843,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -798,43 +859,45 @@
     <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
     <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
     <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="60% - Accent4" xfId="10" builtinId="44"/>
-    <cellStyle name="40% - Accent3" xfId="11" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="12" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="13" builtinId="35"/>
-    <cellStyle name="Title" xfId="14" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="15" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="16" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="17" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="18" builtinId="19"/>
-    <cellStyle name="Input" xfId="19" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="20" builtinId="40"/>
-    <cellStyle name="Good" xfId="21" builtinId="26"/>
-    <cellStyle name="Output" xfId="22" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="23" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="24" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="25" builtinId="24"/>
-    <cellStyle name="Total" xfId="26" builtinId="25"/>
-    <cellStyle name="Bad" xfId="27" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="28" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="29" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="30" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="31" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="32" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="33" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="34" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="35" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="36" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="37" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="38" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="39" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="40" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="42" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="43" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="44" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="45" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="46" builtinId="52"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
@@ -1162,10 +1225,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -1173,6 +1236,7 @@
     <col min="2" max="2" width="18.6666666666667" customWidth="1"/>
     <col min="3" max="3" width="33.1666666666667" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="21.6666666666667" customWidth="1"/>
     <col min="6" max="6" width="21.6666666666667" customWidth="1"/>
     <col min="7" max="7" width="50.7583333333333" customWidth="1"/>
     <col min="8" max="8" width="5.66666666666667" customWidth="1"/>
@@ -1209,7 +1273,7 @@
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
@@ -1227,7 +1291,7 @@
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="E3" s="1"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -1262,9 +1326,10 @@
       <c r="D5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="F5" s="2"/>
       <c r="I5" s="2" t="s">
         <v>22</v>
       </c>
@@ -1283,16 +1348,17 @@
       <c r="D7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>26</v>
       </c>
+      <c r="F7" s="5"/>
       <c r="I7" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" s="3" customFormat="1"/>
-    <row r="9" spans="1:6">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:5">
+      <c r="A9" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -1304,7 +1370,7 @@
       <c r="D9" t="s">
         <v>15</v>
       </c>
-      <c r="F9" t="s">
+      <c r="E9" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1343,8 +1409,8 @@
       </c>
     </row>
     <row r="12" s="1" customFormat="1"/>
-    <row r="13" spans="1:6">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:5">
+      <c r="A13" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B13" t="s">
@@ -1356,7 +1422,7 @@
       <c r="D13" t="s">
         <v>15</v>
       </c>
-      <c r="F13" t="s">
+      <c r="E13" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1415,7 +1481,7 @@
       <c r="C17" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="8" t="s">
         <v>35</v>
       </c>
       <c r="G17" t="s">
@@ -1450,7 +1516,7 @@
       <c r="C20" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="8" t="s">
         <v>35</v>
       </c>
       <c r="G20" t="s">
@@ -1487,8 +1553,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" customFormat="1" spans="1:6">
-      <c r="A25" s="7" t="s">
+    <row r="25" customFormat="1" spans="1:5">
+      <c r="A25" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B25" t="s">
@@ -1500,8 +1566,7 @@
       <c r="D25" t="s">
         <v>15</v>
       </c>
-      <c r="E25"/>
-      <c r="F25" t="s">
+      <c r="E25" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1548,6 +1613,54 @@
     <row r="31" spans="7:7">
       <c r="G31" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" ht="16.5"/>
+    <row r="33" ht="16.5" spans="1:4">
+      <c r="A33" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" ht="16.5" spans="1:7">
+      <c r="A34" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" ht="16.5" spans="1:4">
+      <c r="A35" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/zqlparserdemo/zqlexamples.xlsx
+++ b/zqlparserdemo/zqlexamples.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20415" windowHeight="10102" tabRatio="500"/>
+    <workbookView windowWidth="20415" windowHeight="10522" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
   <si>
     <t>Name</t>
   </si>
@@ -154,6 +154,9 @@
     <t>v2</t>
   </si>
   <si>
+    <t>(this is cross product example</t>
+  </si>
+  <si>
     <t>^ note v1,v2 (parser can't handle a space! like v1, v2)</t>
   </si>
   <si>
@@ -167,6 +170,30 @@
   </si>
   <si>
     <t>y3&lt;-{'soldprice','listingprice'}</t>
+  </si>
+  <si>
+    <t>(this is the pairwise example)</t>
+  </si>
+  <si>
+    <t>z1&lt;-'state'.'CA'</t>
+  </si>
+  <si>
+    <t>z2&lt;-'state'.'NY'</t>
+  </si>
+  <si>
+    <t>x2,y2&lt;-argmin_{x1,y1}[k=1]DEuclidean(f1,f2)</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>y2</t>
+  </si>
+  <si>
+    <t>'state'.{'CA','NY'}</t>
+  </si>
+  <si>
+    <t>state='NY'</t>
   </si>
 </sst>
 </file>
@@ -174,10 +201,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -208,6 +235,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -215,12 +264,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -236,6 +286,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -244,88 +349,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -345,20 +372,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -379,19 +406,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,133 +538,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,32 +596,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -592,37 +625,69 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -643,6 +708,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -657,13 +737,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -676,164 +769,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -846,6 +930,14 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1225,10 +1317,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -1236,8 +1328,7 @@
     <col min="2" max="2" width="18.6666666666667" customWidth="1"/>
     <col min="3" max="3" width="33.1666666666667" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="21.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="21.6666666666667" customWidth="1"/>
+    <col min="5" max="6" width="21.6666666666667" customWidth="1"/>
     <col min="7" max="7" width="50.7583333333333" customWidth="1"/>
     <col min="8" max="8" width="5.66666666666667" customWidth="1"/>
     <col min="9" max="9" width="74.6666666666667" customWidth="1"/>
@@ -1273,7 +1364,7 @@
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
@@ -1291,7 +1382,6 @@
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="1"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -1329,7 +1419,6 @@
       <c r="E5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="2"/>
       <c r="I5" s="2" t="s">
         <v>22</v>
       </c>
@@ -1358,7 +1447,7 @@
     </row>
     <row r="8" s="3" customFormat="1"/>
     <row r="9" spans="1:5">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -1410,7 +1499,7 @@
     </row>
     <row r="12" s="1" customFormat="1"/>
     <row r="13" spans="1:5">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B13" t="s">
@@ -1481,7 +1570,7 @@
       <c r="C17" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="14" t="s">
         <v>35</v>
       </c>
       <c r="G17" t="s">
@@ -1516,7 +1605,7 @@
       <c r="C20" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="14" t="s">
         <v>35</v>
       </c>
       <c r="G20" t="s">
@@ -1554,7 +1643,7 @@
       </c>
     </row>
     <row r="25" customFormat="1" spans="1:5">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B25" t="s">
@@ -1567,7 +1656,7 @@
         <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1590,7 +1679,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" customFormat="1" spans="1:4">
+    <row r="27" customFormat="1" spans="1:5">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -1602,17 +1691,20 @@
       </c>
       <c r="D27" t="s">
         <v>45</v>
+      </c>
+      <c r="E27" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1"/>
     <row r="29" spans="7:7">
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="7:7">
       <c r="G31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" ht="16.5"/>
@@ -1638,7 +1730,7 @@
         <v>18</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>20</v>
@@ -1646,10 +1738,10 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" ht="16.5" spans="1:4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="7" t="s">
         <v>31</v>
       </c>
@@ -1657,11 +1749,136 @@
         <v>18</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="E35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="1" ht="16.5"/>
+    <row r="37" ht="16.5" spans="1:7">
+      <c r="A37" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+    </row>
+    <row r="38" ht="16.5" spans="1:7">
+      <c r="A38" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" ht="16.5" spans="1:7">
+      <c r="A39" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="10"/>
+    </row>
+    <row r="40" ht="16.5" spans="1:7">
+      <c r="A40" s="11"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="13"/>
+    </row>
+    <row r="41" ht="16.5" spans="1:7">
+      <c r="A41" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+    </row>
+    <row r="42" ht="16.5" spans="1:7">
+      <c r="A42" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" ht="16.5" spans="1:7">
+      <c r="A43" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F43" s="8"/>
+      <c r="G43" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
